--- a/FYP/Task and Bugs Metric/Bugs Metric.xlsx
+++ b/FYP/Task and Bugs Metric/Bugs Metric.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben chua\Documents\GitHub\SmartHawker\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchingyi/Documents/SmartHawker/FYP/Task and Bugs Metric/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Metrics" sheetId="1" r:id="rId1"/>
-    <sheet name="Bugs reporting" sheetId="2" r:id="rId2"/>
+    <sheet name="Bugs Log" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -57,9 +63,6 @@
     <t>Date Resolved</t>
   </si>
   <si>
-    <t>Debug Pair</t>
-  </si>
-  <si>
     <t>Action Plan</t>
   </si>
   <si>
@@ -106,13 +109,378 @@
   </si>
   <si>
     <t>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>19th June</t>
+  </si>
+  <si>
+    <t>If email address is in database already, by changing domain name to caps will still enable the user to register (i.e smarthawker@gmail.com &amp; smarthawker@GMAIL.com should be considered the same email and not be allowed to register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High </t>
+  </si>
+  <si>
+    <t>Used "321" (3 digits) for admin pin and account can still be created even though not 4 digits</t>
+  </si>
+  <si>
+    <t>If 2 required fields are empty, it currently only shows the error of topmost empty field.</t>
+  </si>
+  <si>
+    <t>Username shorter than 6 characters should not be able to register</t>
+  </si>
+  <si>
+    <t>Tested different password &amp; confirm password field to get error message shown, however error message remain after problem being resolved. (i.e error message shown at bottom of page do not disappear BUT still can create acc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Change error message "Please enter confirm password" to "Please confirm password"</t>
+  </si>
+  <si>
+    <t>Photos taken using back camera will show error message “Photo taken not within 10mb”</t>
+  </si>
+  <si>
+    <t>Authentication/ Registration</t>
+  </si>
+  <si>
+    <t>Pre-login landing/ UI</t>
+  </si>
+  <si>
+    <t>Logo to change to Smart Hawker logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Resolved by End Iteration?</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Copyright info display should "SmartHawker © 2016" instead of "SmartHawker © 2015"</t>
+  </si>
+  <si>
+    <t>Error messages should start with capital letter. Several messages started with small lettersm resulting in inconsistency</t>
+  </si>
+  <si>
+    <t>Bugs Found 
+(End Iteration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th June </t>
+  </si>
+  <si>
+    <t>22nd June</t>
+  </si>
+  <si>
+    <t>Recording Module</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When submitting record on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new date for the first time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the app will crash and may result in duplicate records (eg. 3 times logging of sales: $680, 2 times logging of cogs). Profit computed is inaccurate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When submitting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3rd record on the same day with blank revenue &amp; COGS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the app crashed and may result in duplicate records (eg. 3 times logging of sales: $680, 2 times logging of cogs). Profit computed is inaccurate</t>
+    </r>
+  </si>
+  <si>
+    <t>When field is blank, it is not shown in view records. When field is "0" it shows up in records.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recording Module </t>
+  </si>
+  <si>
+    <t>View records should be sorted by recording entry. (i.e Record 1, Record 2, Record 3)</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>When a field is edited in view records, it does not immediately reflect in view records page. Have to "back" to previous page to see the changes.</t>
+  </si>
+  <si>
+    <t>Change New Record fields to:
+Revenue ($):
+COGs ($):
+Other Expenses ($):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Record Format to :
+Total Revenue ($):
+Total COGS ($): 
+Total Other Expenses ($):
+------------------------------------------------------
+Total Recorded Profit ($): </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Change date, day format to:
+EG. "03/07/2016" to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"3rd July 2016, Sunday"</t>
+    </r>
+  </si>
+  <si>
+    <t>Change "Click here to view all records" to "View All Records"</t>
+  </si>
+  <si>
+    <t>Error message for blank &amp; '0' in add new records should be in red. Error Message shouldn't disappear after 1-2 sec.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SALES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in "view all reports"  change to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REVENUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXPENSES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in "view all reports"  change to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OTHER EXPENSES</t>
+    </r>
+  </si>
+  <si>
+    <t>After deleting an entry in view records, it should remain in the same page instead of jumping back to new records page.
+1) ENTRY is deleted but will redirect to add new records page instead of staying at "view records" page (hard to delete multiple records). 
+2) clicking back to "view all records", ENTRY will display as 0. Have to do it again before the record disappears</t>
+  </si>
+  <si>
+    <t>3rd July</t>
+  </si>
+  <si>
+    <t>Revenue, COGS and Other Expenses in "View All Records" are jumbled up and not in order</t>
+  </si>
+  <si>
+    <t>End Iteration 1 Total Bug Score</t>
+  </si>
+  <si>
+    <t>End Iteration 2 Total Bug Score</t>
+  </si>
+  <si>
+    <t>Business Calendar</t>
+  </si>
+  <si>
+    <t>When user successfully recorded entry, the specific date in the Business Calendar would be higlighted according to the specific date.</t>
+  </si>
+  <si>
+    <r>
+      <t>Change Record Colour Format to :
+Total Revenue ($):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>BLACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Total COGS ($): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(RED)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Total Other Expenses ($): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(RED)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+------------------------------------------------------
+Total Recorded Profit ($): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>PROFIT: GREEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>LOSS: RED</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,19 +523,65 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -187,8 +601,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -198,16 +630,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -226,22 +658,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,11 +810,130 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -267,6 +947,1143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Bug Metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0305555555555555"/>
+          <c:y val="0.197106663750365"/>
+          <c:w val="0.927777777777778"/>
+          <c:h val="0.564806430446194"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bug Metrics'!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bug Metrics'!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bug Metrics'!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bug Metrics'!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2115072128"/>
+        <c:axId val="-2115925360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2115072128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115925360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2115925360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115072128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,184 +2349,1197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
-    <col min="9" max="9" width="31.6328125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" customWidth="1"/>
-    <col min="13" max="14" width="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="14" max="15" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1"/>
-    <row r="3" spans="1:14" ht="16" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="43">
+        <v>1</v>
+      </c>
+      <c r="C10" s="43">
+        <v>2</v>
+      </c>
+      <c r="D10" s="43">
+        <v>3</v>
+      </c>
+      <c r="E10" s="43">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="36.5" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="36.5" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="F10" s="43">
+        <v>5</v>
+      </c>
+      <c r="G10" s="43">
+        <v>6</v>
+      </c>
+      <c r="H10" s="43">
+        <v>7</v>
+      </c>
+      <c r="I10" s="43">
+        <v>8</v>
+      </c>
+      <c r="J10" s="43">
+        <v>9</v>
+      </c>
+      <c r="K10" s="43">
+        <v>10</v>
+      </c>
+      <c r="L10" s="43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="25">
+        <f>'Bugs Log'!J12</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="25">
+        <f>'Bugs Log'!J30</f>
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="63.5" thickBot="1">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="10">
+        <f>IF(H2="NO",0+G2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B3" s="40">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="14">
+        <f>IF(H3="NO",J2+G3,J2)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B4" s="41">
+        <v>3</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="14">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="14">
+        <f>IF(H4="NO",J3+G4,J3)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B5" s="40">
+        <v>4</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="14">
+        <f>IF(H5="NO",J4+G5,J4)</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B6" s="40">
+        <v>5</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="14">
+        <v>5</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="14">
+        <f>IF(H6="NO",J5+G6,J5)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B7" s="41">
+        <v>6</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="14">
+        <f>IF(H7="NO",J6+G7,J6)</f>
+        <v>3</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B8" s="40">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="14">
+        <f>IF(H8="NO",J7+G8,J7)</f>
+        <v>4</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B9" s="40">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="14">
+        <v>5</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="14">
+        <f>IF(H9="NO",J8+G9,J8)</f>
+        <v>4</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B10" s="40">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14">
+        <f>IF(H10="NO",J9+G10,J9)</f>
+        <v>5</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B11" s="42">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19">
+        <f>IF(H11="NO",J10+G11,J10)</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="29">
+        <f>J11</f>
+        <v>6</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="2:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B14" s="39">
+        <v>1</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="10">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="10">
+        <f>IF(H14="NO",0+G2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B15" s="40">
+        <v>2</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="14">
+        <v>10</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="14">
+        <f>IF(H15="NO",G15+J14,J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B16" s="40">
+        <v>3</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="14">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" ref="J16:J29" si="0">IF(H16="NO",G16+J15,J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B17" s="40">
+        <v>4</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="14">
+        <v>5</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B18" s="40">
+        <v>5</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="14">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="2:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="B19" s="40">
+        <v>6</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="14">
+        <f>IF(H19="NO",G19+J18,J18)</f>
+        <v>6</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="2:13" ht="75" x14ac:dyDescent="0.2">
+      <c r="B20" s="40">
+        <v>7</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="2:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="B21" s="40">
+        <v>8</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="2:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="B22" s="40">
+        <v>9</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14">
+        <f>IF(H22="NO",G22+J21,J21)</f>
+        <v>9</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B23" s="40">
+        <v>10</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B24" s="40">
         <v>11</v>
       </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B25" s="41">
+        <v>12</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B26" s="40">
+        <v>13</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="14">
+        <f>IF(H26="NO",G26+J25,J25)</f>
+        <v>12</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B27" s="40">
+        <v>14</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="34"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B28" s="40">
+        <v>15</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="34"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="2:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="42">
+        <v>16</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="B30" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49">
+        <f>J29</f>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C14:C28"/>
+    <mergeCell ref="B30:I30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/FYP/Task and Bugs Metric/Bugs Metric.xlsx
+++ b/FYP/Task and Bugs Metric/Bugs Metric.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchingyi/Documents/SmartHawker/FYP/Task and Bugs Metric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benchuaweilun/Documents/SmartHawker/FYP/Task and Bugs Metric/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Metrics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -480,7 +480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,13 +522,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -791,10 +784,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -825,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -837,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,32 +863,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,26 +881,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1000,7 +996,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1122,7 +1117,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1264,7 +1258,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1352,11 +1345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2115072128"/>
-        <c:axId val="-2115925360"/>
+        <c:axId val="2128499760"/>
+        <c:axId val="2126427712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115072128"/>
+        <c:axId val="2128499760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115925360"/>
+        <c:crossAx val="2126427712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1407,7 +1400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115925360"/>
+        <c:axId val="2126427712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115072128"/>
+        <c:crossAx val="2128499760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,7 +1427,6 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2474,44 +2466,44 @@
       <c r="O6" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="36">
         <v>2</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="36">
         <v>3</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="36">
         <v>4</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="36">
         <v>5</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="36">
         <v>6</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="36">
         <v>7</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="36">
         <v>8</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="36">
         <v>9</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="36">
         <v>10</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="36">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>47</v>
       </c>
@@ -2544,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2598,10 +2590,10 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B2" s="39">
+      <c r="B2" s="32">
         <v>1</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="44">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -2635,10 +2627,10 @@
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B3" s="40">
+      <c r="B3" s="33">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="15" t="s">
         <v>40</v>
       </c>
@@ -2658,7 +2650,7 @@
         <v>44</v>
       </c>
       <c r="J3" s="14">
-        <f>IF(H3="NO",J2+G3,J2)</f>
+        <f t="shared" ref="J3:J11" si="0">IF(H3="NO",J2+G3,J2)</f>
         <v>1</v>
       </c>
       <c r="K3" s="14" t="s">
@@ -2670,10 +2662,10 @@
       <c r="M3" s="17"/>
     </row>
     <row r="4" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B4" s="41">
+      <c r="B4" s="34">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="15" t="s">
         <v>40</v>
       </c>
@@ -2693,7 +2685,7 @@
         <v>44</v>
       </c>
       <c r="J4" s="14">
-        <f>IF(H4="NO",J3+G4,J3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K4" s="14" t="s">
@@ -2705,10 +2697,10 @@
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B5" s="40">
+      <c r="B5" s="33">
         <v>4</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="15" t="s">
         <v>40</v>
       </c>
@@ -2728,7 +2720,7 @@
         <v>44</v>
       </c>
       <c r="J5" s="14">
-        <f>IF(H5="NO",J4+G5,J4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K5" s="14" t="s">
@@ -2740,10 +2732,10 @@
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B6" s="40">
+      <c r="B6" s="33">
         <v>5</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="15" t="s">
         <v>40</v>
       </c>
@@ -2763,7 +2755,7 @@
         <v>44</v>
       </c>
       <c r="J6" s="14">
-        <f>IF(H6="NO",J5+G6,J5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K6" s="14" t="s">
@@ -2775,10 +2767,10 @@
       <c r="M6" s="17"/>
     </row>
     <row r="7" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B7" s="41">
+      <c r="B7" s="34">
         <v>6</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
@@ -2798,7 +2790,7 @@
         <v>44</v>
       </c>
       <c r="J7" s="14">
-        <f>IF(H7="NO",J6+G7,J6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K7" s="14" t="s">
@@ -2810,10 +2802,10 @@
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B8" s="40">
+      <c r="B8" s="33">
         <v>7</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
@@ -2833,7 +2825,7 @@
         <v>44</v>
       </c>
       <c r="J8" s="14">
-        <f>IF(H8="NO",J7+G8,J7)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K8" s="14" t="s">
@@ -2845,10 +2837,10 @@
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B9" s="40">
+      <c r="B9" s="33">
         <v>8</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="15" t="s">
         <v>40</v>
       </c>
@@ -2868,7 +2860,7 @@
         <v>44</v>
       </c>
       <c r="J9" s="14">
-        <f>IF(H9="NO",J8+G9,J8)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K9" s="14" t="s">
@@ -2880,10 +2872,10 @@
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B10" s="40">
+      <c r="B10" s="33">
         <v>9</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="15" t="s">
         <v>41</v>
       </c>
@@ -2899,9 +2891,11 @@
       <c r="H10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="J10" s="14">
-        <f>IF(H10="NO",J9+G10,J9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K10" s="14" t="s">
@@ -2911,10 +2905,10 @@
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="42">
+      <c r="B11" s="35">
         <v>10</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="20" t="s">
         <v>41</v>
       </c>
@@ -2930,9 +2924,11 @@
       <c r="H11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="J11" s="19">
-        <f>IF(H11="NO",J10+G11,J10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K11" s="19" t="s">
@@ -2942,16 +2938,16 @@
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="33"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="29">
         <f>J11</f>
         <v>6</v>
@@ -2999,10 +2995,10 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B14" s="39">
+      <c r="B14" s="32">
         <v>1</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="44">
         <v>2</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -3036,10 +3032,10 @@
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B15" s="40">
+      <c r="B15" s="33">
         <v>2</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="15" t="s">
         <v>50</v>
       </c>
@@ -3071,10 +3067,10 @@
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B16" s="40">
+      <c r="B16" s="33">
         <v>3</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="15" t="s">
         <v>50</v>
       </c>
@@ -3094,7 +3090,7 @@
         <v>44</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" ref="J16:J29" si="0">IF(H16="NO",G16+J15,J15)</f>
+        <f t="shared" ref="J16:J29" si="1">IF(H16="NO",G16+J15,J15)</f>
         <v>0</v>
       </c>
       <c r="K16" s="14" t="s">
@@ -3106,10 +3102,10 @@
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B17" s="40">
+      <c r="B17" s="33">
         <v>4</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="15" t="s">
         <v>54</v>
       </c>
@@ -3127,7 +3123,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K17" s="14" t="s">
@@ -3137,10 +3133,10 @@
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B18" s="40">
+      <c r="B18" s="33">
         <v>5</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="15" t="s">
         <v>54</v>
       </c>
@@ -3160,7 +3156,7 @@
         <v>44</v>
       </c>
       <c r="J18" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K18" s="14" t="s">
@@ -3172,10 +3168,10 @@
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="B19" s="40">
+      <c r="B19" s="33">
         <v>6</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="15" t="s">
         <v>54</v>
       </c>
@@ -3203,10 +3199,10 @@
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" ht="75" x14ac:dyDescent="0.2">
-      <c r="B20" s="40">
+      <c r="B20" s="33">
         <v>7</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="11" t="s">
         <v>50</v>
       </c>
@@ -3222,9 +3218,11 @@
       <c r="H20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="15"/>
+      <c r="I20" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K20" s="14" t="s">
@@ -3234,10 +3232,10 @@
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="2:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="B21" s="40">
+      <c r="B21" s="33">
         <v>8</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="15" t="s">
         <v>54</v>
       </c>
@@ -3253,9 +3251,11 @@
       <c r="H21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J21" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K21" s="14" t="s">
@@ -3265,10 +3265,10 @@
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="B22" s="40">
+      <c r="B22" s="33">
         <v>9</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="15" t="s">
         <v>50</v>
       </c>
@@ -3284,7 +3284,9 @@
       <c r="H22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J22" s="14">
         <f>IF(H22="NO",G22+J21,J21)</f>
         <v>9</v>
@@ -3296,10 +3298,10 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B23" s="40">
+      <c r="B23" s="33">
         <v>10</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="15" t="s">
         <v>54</v>
       </c>
@@ -3315,9 +3317,11 @@
       <c r="H23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J23" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K23" s="14" t="s">
@@ -3327,10 +3331,10 @@
       <c r="M23" s="17"/>
     </row>
     <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B24" s="40">
+      <c r="B24" s="33">
         <v>11</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="15" t="s">
         <v>54</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K24" s="14" t="s">
@@ -3362,10 +3366,10 @@
       <c r="M24" s="17"/>
     </row>
     <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B25" s="41">
+      <c r="B25" s="34">
         <v>12</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="15" t="s">
         <v>54</v>
       </c>
@@ -3383,7 +3387,7 @@
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K25" s="14" t="s">
@@ -3393,10 +3397,10 @@
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B26" s="40">
+      <c r="B26" s="33">
         <v>13</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="15" t="s">
         <v>54</v>
       </c>
@@ -3412,7 +3416,9 @@
       <c r="H26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J26" s="14">
         <f>IF(H26="NO",G26+J25,J25)</f>
         <v>12</v>
@@ -3424,10 +3430,10 @@
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B27" s="40">
+      <c r="B27" s="33">
         <v>14</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="15" t="s">
         <v>54</v>
       </c>
@@ -3443,22 +3449,24 @@
       <c r="H27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="34"/>
+      <c r="I27" s="51" t="s">
+        <v>44</v>
+      </c>
       <c r="J27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="35"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
     </row>
     <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B28" s="40">
+      <c r="B28" s="33">
         <v>15</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="15" t="s">
         <v>54</v>
       </c>
@@ -3474,26 +3482,26 @@
       <c r="H28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="35"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="2:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="42">
+      <c r="B29" s="35">
         <v>16</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="39" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="19" t="s">
@@ -3507,7 +3515,7 @@
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K29" s="19" t="s">
@@ -3517,17 +3525,17 @@
       <c r="M29" s="24"/>
     </row>
     <row r="30" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49">
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="38">
         <f>J29</f>
         <v>15</v>
       </c>

--- a/FYP/Task and Bugs Metric/Bugs Metric.xlsx
+++ b/FYP/Task and Bugs Metric/Bugs Metric.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benchuaweilun/Documents/SmartHawker/FYP/Task and Bugs Metric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guixiang/Desktop/FYP/SmartHawker/FYP/Task and Bugs Metric/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1"/>
+    <workbookView xWindow="6560" yWindow="460" windowWidth="20480" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="Bugs Log" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="94">
   <si>
     <t>Description</t>
   </si>
@@ -99,15 +99,9 @@
     <t>Fix during buffer time only</t>
   </si>
   <si>
-    <t>5 &lt; Points &lt; 10</t>
-  </si>
-  <si>
     <t>Use the planned debugging time.</t>
   </si>
   <si>
-    <t>Points&gt;=10</t>
-  </si>
-  <si>
     <t>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</t>
   </si>
   <si>
@@ -154,12 +148,6 @@
   </si>
   <si>
     <t>Authentication/ Registration</t>
-  </si>
-  <si>
-    <t>Pre-login landing/ UI</t>
-  </si>
-  <si>
-    <t>Logo to change to Smart Hawker logo</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -167,9 +155,6 @@
   </si>
   <si>
     <t>DONE</t>
-  </si>
-  <si>
-    <t>Copyright info display should "SmartHawker © 2016" instead of "SmartHawker © 2015"</t>
   </si>
   <si>
     <t>Error messages should start with capital letter. Several messages started with small lettersm resulting in inconsistency</t>
@@ -474,6 +459,84 @@
       </rPr>
       <t>LOSS: RED</t>
     </r>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t>When changing profile photo with picture taken with camera, it does not update</t>
+  </si>
+  <si>
+    <t>When changing email to one that has already been taken, it still allowed saved when it should not</t>
+  </si>
+  <si>
+    <t>Tax Calculation</t>
+  </si>
+  <si>
+    <t>Rounding of decimals off ( more than 2 dp )</t>
+  </si>
+  <si>
+    <t>Cannot press the back button from tax calculation, only can navigate from tabs</t>
+  </si>
+  <si>
+    <t>End Iteration 3 Total Bug Score</t>
+  </si>
+  <si>
+    <t>Business Calendar/UI</t>
+  </si>
+  <si>
+    <t>Selected day of month should change to first of every month during month change. Now selected day of the month remain while changing months</t>
+  </si>
+  <si>
+    <t>When existing records are deleted, a message should show ""You havn't added a record for the day", but it did not appear</t>
+  </si>
+  <si>
+    <t>When adding fixed expense, UI shouldn't show the record under daily.</t>
+  </si>
+  <si>
+    <t>End Iteration 4 Total Bug Score</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>After registration,sometimes it wouldn’t auto login. Need to press cancel to redirect</t>
+  </si>
+  <si>
+    <t>Calendar may have unexpected crashes</t>
+  </si>
+  <si>
+    <t>DONE (but not in current version)</t>
+  </si>
+  <si>
+    <t>Main Page/ UI</t>
+  </si>
+  <si>
+    <t>"Average Sales" out of box</t>
+  </si>
+  <si>
+    <t>Analytics / UI</t>
+  </si>
+  <si>
+    <t>When scrolling up/down, the contents will intersect the header</t>
+  </si>
+  <si>
+    <t>Recording, Biz Calendar/ UI</t>
+  </si>
+  <si>
+    <t>"Profit" values out of box</t>
+  </si>
+  <si>
+    <t>End Iteration 5 Total Bug Score</t>
+  </si>
+  <si>
+    <t>5 &lt; Points &lt;= 10</t>
+  </si>
+  <si>
+    <t>Points&gt;10</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -613,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -781,13 +844,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,12 +930,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -881,14 +962,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,9 +992,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,8 +1004,113 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -996,6 +1182,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1117,6 +1304,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1183,10 +1371,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,6 +1452,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1324,10 +1519,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,11 +1546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128499760"/>
-        <c:axId val="2126427712"/>
+        <c:axId val="-2138214432"/>
+        <c:axId val="-2142390336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128499760"/>
+        <c:axId val="-2138214432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126427712"/>
+        <c:crossAx val="-2142390336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1400,16 +1601,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126427712"/>
+        <c:axId val="-2142390336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128499760"/>
+        <c:crossAx val="-2138214432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1427,6 +1629,7 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2078,6 +2281,37 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Bug Metrics"/>
+      <sheetName val="Bugs Log"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="J10">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="J39">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2343,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2426,10 +2660,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -2450,10 +2684,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -2466,64 +2700,69 @@
       <c r="O6" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <v>3</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="34">
         <v>4</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="34">
         <v>5</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="34">
         <v>6</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>7</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="34">
         <v>8</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="34">
         <v>9</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="34">
         <v>10</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="25">
-        <f>'Bugs Log'!J12</f>
+      <c r="A11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="23">
+        <f>'[1]Bugs Log'!J10</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="23">
+        <f>'[1]Bugs Log'!J28</f>
+        <v>15</v>
+      </c>
+      <c r="D11" s="23">
         <v>6</v>
       </c>
-      <c r="C11" s="25">
-        <f>'Bugs Log'!J30</f>
-        <v>15</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="E11" s="23">
+        <f>'[1]Bugs Log'!J39</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2534,15 +2773,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M30"/>
+  <dimension ref="B1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="67.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16.1640625" customWidth="1"/>
     <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -2571,7 +2810,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>7</v>
@@ -2590,962 +2829,1346 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B2" s="32">
+      <c r="B2" s="30">
         <v>1</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="43">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="10">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" s="10">
         <f>IF(H2="NO",0+G2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>2</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="14">
         <v>5</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J11" si="0">IF(H3="NO",J2+G3,J2)</f>
+        <f t="shared" ref="J3:J9" si="0">IF(H3="NO",J2+G3,J2)</f>
         <v>1</v>
       </c>
       <c r="K3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B4" s="32">
+        <v>3</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B4" s="34">
-        <v>3</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="14">
         <v>5</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>4</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="14">
         <v>1</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>5</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="14">
         <v>5</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M6" s="17"/>
     </row>
     <row r="7" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B7" s="34">
+      <c r="B7" s="32">
         <v>6</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>7</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B9" s="31">
+        <v>8</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B9" s="33">
-        <v>8</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="G9" s="14">
         <v>5</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B10" s="33">
+    <row r="10" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="B10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="27">
+        <v>4</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="M11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="C12" s="43">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="10">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="0"/>
+      <c r="I12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="10">
+        <f>IF(H12="NO",0+G2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B13" s="31">
+        <v>2</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="14">
+        <v>10</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="14">
+        <f>IF(H13="NO",G13+J12,J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B14" s="31">
+        <v>3</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="14">
         <v>5</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="35">
-        <v>10</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="19" t="s">
+      <c r="H14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="29">
-        <f>J11</f>
-        <v>6</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="2:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="I14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:J27" si="1">IF(H14="NO",G14+J13,J13)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="K14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="31">
         <v>4</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="14">
         <v>5</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B14" s="32">
-        <v>1</v>
-      </c>
-      <c r="C14" s="44">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="10">
-        <v>10</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="10">
-        <f>IF(H14="NO",0+G2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B15" s="33">
-        <v>2</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="28" t="s">
+      <c r="H15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B16" s="31">
+        <v>5</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="14">
-        <v>10</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="14">
-        <f>IF(H15="NO",G15+J14,J14)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B16" s="33">
-        <v>3</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>53</v>
-      </c>
       <c r="F16" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="14">
         <v>5</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" ref="J16:J29" si="1">IF(H16="NO",G16+J15,J15)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B17" s="33">
-        <v>4</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="14">
-        <v>5</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="K16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="B17" s="31">
+        <v>6</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="14">
+        <f>IF(H17="NO",G17+J16,J16)</f>
+        <v>6</v>
+      </c>
       <c r="K17" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B18" s="33">
-        <v>5</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>57</v>
+    <row r="18" spans="2:13" ht="75" x14ac:dyDescent="0.2">
+      <c r="B18" s="31">
+        <v>7</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="F18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="14">
-        <v>5</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="I18" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="L18" s="15"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="B19" s="33">
-        <v>6</v>
-      </c>
-      <c r="C19" s="45"/>
+      <c r="B19" s="31">
+        <v>8</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="D19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>65</v>
-      </c>
       <c r="F19" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G19" s="14">
         <v>1</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="J19" s="14">
-        <f>IF(H19="NO",G19+J18,J18)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="2:13" ht="75" x14ac:dyDescent="0.2">
-      <c r="B20" s="33">
-        <v>7</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>58</v>
+    <row r="20" spans="2:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="B20" s="31">
+        <v>9</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" s="14">
         <v>1</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>IF(H20="NO",G20+J19,J19)</f>
+        <v>9</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="2:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="B21" s="33">
-        <v>8</v>
-      </c>
-      <c r="C21" s="45"/>
+    <row r="21" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B21" s="31">
+        <v>10</v>
+      </c>
+      <c r="C21" s="44"/>
       <c r="D21" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G21" s="14">
         <v>1</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="2:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="B22" s="33">
-        <v>9</v>
-      </c>
-      <c r="C22" s="45"/>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="31">
+        <v>11</v>
+      </c>
+      <c r="C22" s="44"/>
       <c r="D22" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G22" s="14">
         <v>1</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="J22" s="14">
-        <f>IF(H22="NO",G22+J21,J21)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B23" s="33">
-        <v>10</v>
-      </c>
-      <c r="C23" s="45"/>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="32">
+        <v>12</v>
+      </c>
+      <c r="C23" s="44"/>
       <c r="D23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G23" s="14">
         <v>1</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I23" s="16"/>
       <c r="J23" s="14">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B24" s="33">
-        <v>11</v>
-      </c>
-      <c r="C24" s="45"/>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="31">
+        <v>13</v>
+      </c>
+      <c r="C24" s="44"/>
       <c r="D24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G24" s="14">
         <v>1</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>IF(H24="NO",G24+J23,J23)</f>
+        <v>12</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="L24" s="15"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B25" s="34">
-        <v>12</v>
-      </c>
-      <c r="C25" s="45"/>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="31">
+        <v>14</v>
+      </c>
+      <c r="C25" s="44"/>
       <c r="D25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G25" s="14">
         <v>1</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>40</v>
+      </c>
       <c r="J25" s="14">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B26" s="33">
-        <v>13</v>
-      </c>
-      <c r="C26" s="45"/>
+        <v>61</v>
+      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="31">
+        <v>15</v>
+      </c>
+      <c r="C26" s="44"/>
       <c r="D26" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G26" s="14">
         <v>1</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I26" s="38"/>
       <c r="J26" s="14">
-        <f>IF(H26="NO",G26+J25,J25)</f>
-        <v>12</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B27" s="33">
-        <v>14</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="14">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B28" s="33">
-        <v>15</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="33">
+        <v>16</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="2:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="35">
-        <v>16</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="19">
+      <c r="F27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="19">
+      <c r="H27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B30" s="47" t="s">
+      <c r="K27" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="35">
+        <f>J27</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="32">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="59">
+        <v>1</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="28">
+        <v>1</v>
+      </c>
+      <c r="K30" s="60">
+        <v>42568</v>
+      </c>
+      <c r="L30" s="60">
+        <v>42568</v>
+      </c>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="61">
+        <v>2</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="66">
+        <v>5</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="21">
+        <v>6</v>
+      </c>
+      <c r="K31" s="67">
+        <v>42568</v>
+      </c>
+      <c r="L31" s="67">
+        <v>42568</v>
+      </c>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="B32" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B34" s="51">
+        <v>1</v>
+      </c>
+      <c r="C34" s="69">
+        <v>4</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="54">
+        <v>1</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53">
+        <v>1</v>
+      </c>
+      <c r="K34" s="72">
+        <v>42581</v>
+      </c>
+      <c r="L34" s="53"/>
+      <c r="M34" s="57"/>
+    </row>
+    <row r="35" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B35" s="32">
+        <v>2</v>
+      </c>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="58">
+        <v>1</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28">
+        <v>2</v>
+      </c>
+      <c r="K35" s="72">
+        <v>42581</v>
+      </c>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="76">
+        <v>3</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="65">
+        <v>5</v>
+      </c>
+      <c r="H36" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21">
+        <v>7</v>
+      </c>
+      <c r="K36" s="72">
+        <v>42581</v>
+      </c>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="B37" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="81">
+        <v>1</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="86">
+        <v>5</v>
+      </c>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B39" s="82">
+        <v>2</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="84">
+        <v>10</v>
+      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="82">
+        <v>3</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="84">
+        <v>1</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="82">
+        <v>4</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="84">
+        <v>1</v>
+      </c>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
+    </row>
+    <row r="42" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B42" s="76">
+        <v>5</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="85">
+        <v>1</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="82">
+        <v>6</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="38">
-        <f>J29</f>
-        <v>15</v>
-      </c>
+      <c r="F43" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="55">
+        <v>5</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="56">
+        <v>42568</v>
+      </c>
+      <c r="L43" s="53"/>
+      <c r="M43" s="57"/>
+    </row>
+    <row r="44" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B44" s="82">
+        <v>7</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="59">
+        <v>5</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="60">
+        <v>42568</v>
+      </c>
+      <c r="L44" s="28"/>
+      <c r="M44" s="29"/>
+    </row>
+    <row r="45" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="B45" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C14:C28"/>
-    <mergeCell ref="B30:I30"/>
+  <mergeCells count="8">
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="C12:C26"/>
+    <mergeCell ref="B28:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
